--- a/OSP-Solubility-Toolbox/SolubilityData.xlsx
+++ b/OSP-Solubility-Toolbox/SolubilityData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/andre_dallmann_bayer_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/andre_dallmann_bayer_com/Documents/Projects/BAY3283142_sGC_Act_FU/Model/PBBM/beta version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{A1BE414D-60A4-4A8F-84BC-C4DC19B168E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36EDD0FF-AF5D-4020-9C4C-654899447C6B}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{A1BE414D-60A4-4A8F-84BC-C4DC19B168E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3F7C21-C9E7-4B60-8EE2-8A1E45D48F0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7E18598-9AD0-4A21-8FFB-2B896F3075D0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D7E18598-9AD0-4A21-8FFB-2B896F3075D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="Observed.Aqueous" sheetId="2" r:id="rId2"/>
-    <sheet name="Observed.Biorelevant" sheetId="3" r:id="rId3"/>
+    <sheet name="Observed.Aqueous" sheetId="2" r:id="rId1"/>
+    <sheet name="Observed.Biorelevant" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,52 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>MW_g/mol</t>
-  </si>
-  <si>
-    <t>pKa1</t>
-  </si>
-  <si>
-    <t>pKa1 type</t>
-  </si>
-  <si>
-    <t>pKa2</t>
-  </si>
-  <si>
-    <t>pKa2 type</t>
-  </si>
-  <si>
-    <t>pKa3</t>
-  </si>
-  <si>
-    <t>pKa3 type</t>
-  </si>
-  <si>
-    <t>Log.P</t>
-  </si>
-  <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t>S0_unit</t>
-  </si>
-  <si>
-    <t>MW.H2O</t>
-  </si>
-  <si>
-    <t>rho.H2O</t>
-  </si>
-  <si>
-    <t>C.H2O_M</t>
-  </si>
-  <si>
-    <t>CMC_mM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -129,25 +83,14 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>S0.pH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,9 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,107 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484BF29-D1EE-4366-9493-416A13E0970D}">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M2">
-        <v>18.015280000000001</v>
-      </c>
-      <c r="N2">
-        <v>993.37</v>
-      </c>
-      <c r="O2">
-        <v>55.56</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;22&amp;KFF8939RESTRICTED</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7494FF-E120-45BE-8B92-64E8E1B2874C}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,32 +460,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -648,12 +494,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B24A028-C908-4DAE-B5C1-3892A03EF5B5}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,35 +517,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -709,15 +555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1a4d292e-883c-434b-96e3-060cfff16c86" xsi:nil="true"/>
@@ -731,7 +568,21 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7bc43322-b630-4bac-8b27-31def233d1d0" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF8D412D43FB71459A3E280B191285AA" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="978ee81ef1d46f01e3ee849fc4763978">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a4d292e-883c-434b-96e3-060cfff16c86" xmlns:ns3="64fd0e3e-46db-4663-afde-72493f473330" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98b8409cbd0f0257de7841a1fe7afc3b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -961,20 +812,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7bc43322-b630-4bac-8b27-31def233d1d0" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E683232-8F20-4512-9198-BEFC1C6D8EDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9422E51-76B4-48B7-B928-82DA9E2BF3E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -986,7 +824,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E683232-8F20-4512-9198-BEFC1C6D8EDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C481F5-B7DE-4E93-8696-DBB3BFAEFAE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F42AF6C-3B56-4946-A9C7-ADE267161B3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1004,12 +858,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1C481F5-B7DE-4E93-8696-DBB3BFAEFAE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>